--- a/docs/pgdip/605/CO2/info/stats_on_deduplicated_data.xlsx
+++ b/docs/pgdip/605/CO2/info/stats_on_deduplicated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Makhate\deepdives\datascience\docs\pgdip\605\CO2\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57103B15-3834-4220-9BFC-751E5566326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDF90D-4464-4EC5-BAED-3DF0FF865B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,12 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +659,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C54" sqref="A54:C54"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1090,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
